--- a/biology/Médecine/Contamination_de_l'héparine_chinoise_en_2008/Contamination_de_l'héparine_chinoise_en_2008.xlsx
+++ b/biology/Médecine/Contamination_de_l'héparine_chinoise_en_2008/Contamination_de_l'héparine_chinoise_en_2008.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Contamination_de_l%27h%C3%A9parine_chinoise_en_2008</t>
+          <t>Contamination_de_l'héparine_chinoise_en_2008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au mois de mars 2008, des rappels majeurs d’héparine ont été annoncés par la Food and Drug Administration (FDA) américaine en raison de contamination du stock brut d’héparine importé de Chine[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au mois de mars 2008, des rappels majeurs d’héparine ont été annoncés par la Food and Drug Administration (FDA) américaine en raison de contamination du stock brut d’héparine importé de Chine.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Contamination_de_l%27h%C3%A9parine_chinoise_en_2008</t>
+          <t>Contamination_de_l'héparine_chinoise_en_2008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’héparine a été produite en Chine à partir d’intestins de porcs par l'entreprise pharmaceutique américaine Scientific Protein Laboratories (en)[3],[4],[5]. La Food and Drug Administration a déclaré suspecter qu’au moins 81 décès serait liés à un composant de l’héparine brute importée de République populaire de Chine, et qu'il y a également eu 785 rapports d’accidents sérieux associés à l'usage de ce médicament[6]. Selon le New York Times, « les problèmes liés à l'héparine rapportés à l'agence incluent des difficultés respiratoires, des nausées, des vomissements, une transpiration excessive et de rapides chutes de tension artérielle qui dans certains cas ont mené à un choc mettant le pronostic vital en danger »[4].
-Le contaminant a été identifié comme un dérivé « sursulfaté » de sulfate de chondroïtine, un dérivé de mollusque utilisé fréquemment pour le traitement de l’arthrite[3],[7]. Puisque le dérivé « sursulfaté » ne se trouve pas à l’état naturel et imite les propriétés de héparine, la contrefaçon est très certainement intentionnelle contrairement à une défaillance accidentelle de fabrication[8]. L'héparine a été mélangée dans des proportions allant de 2 à 60 % a un produit de contrefaçon en raison de son moindre coût et d’une pénurie de porcs convenables en Chine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’héparine a été produite en Chine à partir d’intestins de porcs par l'entreprise pharmaceutique américaine Scientific Protein Laboratories (en). La Food and Drug Administration a déclaré suspecter qu’au moins 81 décès serait liés à un composant de l’héparine brute importée de République populaire de Chine, et qu'il y a également eu 785 rapports d’accidents sérieux associés à l'usage de ce médicament. Selon le New York Times, « les problèmes liés à l'héparine rapportés à l'agence incluent des difficultés respiratoires, des nausées, des vomissements, une transpiration excessive et de rapides chutes de tension artérielle qui dans certains cas ont mené à un choc mettant le pronostic vital en danger ».
+Le contaminant a été identifié comme un dérivé « sursulfaté » de sulfate de chondroïtine, un dérivé de mollusque utilisé fréquemment pour le traitement de l’arthrite,. Puisque le dérivé « sursulfaté » ne se trouve pas à l’état naturel et imite les propriétés de héparine, la contrefaçon est très certainement intentionnelle contrairement à une défaillance accidentelle de fabrication. L'héparine a été mélangée dans des proportions allant de 2 à 60 % a un produit de contrefaçon en raison de son moindre coût et d’une pénurie de porcs convenables en Chine.
 Quand la FDA a enfin effectué une inspection du fournisseur d’héparine chinoise de Baxter, de sérieux manquements dans l’entreprise ont été trouvés que la FDA a détaillé dans une lettre à l'attention de l'entreprise chinoise. La FDA a également déclaré qu'elle n'avait pas les fonds, et n'était pas dans l'obligation d'inspecter régulièrement les fabricants à l’étranger d'ingrédients pharmaceutiques actifs comme l’héparine.
-Au mois de novembre 2008, la FDA a saisi onze lots d’héparine des Laboratoires Celsus Inc., un fabricant de Cincinnati, dans l'Ohio[9].
+Au mois de novembre 2008, la FDA a saisi onze lots d’héparine des Laboratoires Celsus Inc., un fabricant de Cincinnati, dans l'Ohio.
 </t>
         </is>
       </c>
